--- a/alkaev.xlsx
+++ b/alkaev.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alkae\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alkae\OneDrive\Документы\GitHub\alkaev2004_python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -136,9 +136,6 @@
     <t>normalize_path</t>
   </si>
   <si>
-    <t>7.307</t>
-  </si>
-  <si>
     <t>count_util</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>is_gora</t>
+  </si>
+  <si>
+    <t>is_palindrom</t>
   </si>
 </sst>
 </file>
@@ -517,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -734,13 +734,13 @@
       <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C28" t="s">
-        <v>34</v>
+      <c r="C28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>20</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>30</v>
@@ -806,17 +806,17 @@
         <v>32</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>10</v>
@@ -824,19 +824,27 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>39</v>
       </c>
-      <c r="C41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <f>SUM(C1:C41)+20</f>
-        <v>340</v>
+      <c r="C43">
+        <f>SUM(C1:C42)</f>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/alkaev.xlsx
+++ b/alkaev.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alkae\OneDrive\Документы\GitHub\alkaev2004_python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ne_ravilka\tasks_students\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9768"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>01.1.PythonTools</t>
   </si>
@@ -151,13 +151,43 @@
     <t>space_replace_20%</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>is_gora</t>
   </si>
   <si>
     <t>is_palindrom</t>
+  </si>
+  <si>
+    <t>RLE</t>
+  </si>
+  <si>
+    <t>sorted_squres</t>
+  </si>
+  <si>
+    <t>04.1.NamespacesAndDecorators</t>
+  </si>
+  <si>
+    <t>calc</t>
+  </si>
+  <si>
+    <t>lru_cache</t>
+  </si>
+  <si>
+    <t>profiler</t>
+  </si>
+  <si>
+    <t>04.2.Bytecode</t>
+  </si>
+  <si>
+    <t>byteme</t>
+  </si>
+  <si>
+    <t>codeops</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -181,12 +211,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,8 +237,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -237,7 +274,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -249,7 +286,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -517,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -806,7 +843,7 @@
         <v>32</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -816,7 +853,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>10</v>
@@ -832,19 +869,93 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>41</v>
       </c>
-      <c r="C42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43">
-        <f>SUM(C1:C42)</f>
-        <v>325</v>
+      <c r="C43" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54">
+        <f>SUM(C1:C42)+SUM(C43:C53)/2+20</f>
+        <v>387.5</v>
       </c>
     </row>
   </sheetData>
